--- a/Datasheets and EDA Symbols/VSC8572/VSC8572.xlsx
+++ b/Datasheets and EDA Symbols/VSC8572/VSC8572.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willschoenfeld/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willschoenfeld/Downloads/IC Info/Datasheets and EDA Symbols/VSC8572/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1236BB-0B7E-1946-AD46-14563FB057AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C96CA6-EAF1-474D-B768-255B24FA1FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{54505CC3-DA60-5C49-86C9-ABBF314D17D0}"/>
   </bookViews>
